--- a/Docs/Taetigkeitsdokumentation.xlsx
+++ b/Docs/Taetigkeitsdokumentation.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FFCFD3-8175-4DD4-8F02-D47D1D41DEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FFF02F-0845-4DAA-B550-453F5FE3492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35285433070866135"/>
+          <c:y val="0.40361111111111109"/>
+          <c:w val="0.35540244969378826"/>
+          <c:h val="0.59233741615631375"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -453,6 +463,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4552-4DF7-AAA6-C32A3806EF1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -468,6 +483,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4552-4DF7-AAA6-C32A3806EF1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -483,6 +503,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4552-4DF7-AAA6-C32A3806EF1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -498,6 +523,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-4552-4DF7-AAA6-C32A3806EF1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -513,6 +543,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-4552-4DF7-AAA6-C32A3806EF1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -528,6 +563,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-4552-4DF7-AAA6-C32A3806EF1D}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -562,22 +602,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.38562091503267976</c:v>
+                  <c:v>0.42682926829268292</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26143790849673204</c:v>
+                  <c:v>0.24390243902439024</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13071895424836602</c:v>
+                  <c:v>0.12195121951219512</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.2073170731707317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,16 +1278,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>338137</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1564,8 +1604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,20 +1667,20 @@
         <v>15</v>
       </c>
       <c r="H2" s="16">
-        <f t="shared" ref="H2:M2" si="0">SUM(H3:H1000)/SUM($H$3:$M$1000)</f>
-        <v>0.38562091503267976</v>
+        <f>SUM(H3:H1000)/SUM($H$3:$M$1000)</f>
+        <v>0.42682926829268292</v>
       </c>
       <c r="I2" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H2:M2" si="0">SUM(I3:I1000)/SUM($H$3:$M$1000)</f>
         <v>0</v>
       </c>
       <c r="J2" s="17">
         <f t="shared" si="0"/>
-        <v>0.26143790849673204</v>
+        <v>0.24390243902439024</v>
       </c>
       <c r="K2" s="17">
         <f t="shared" si="0"/>
-        <v>0.13071895424836602</v>
+        <v>0.12195121951219512</v>
       </c>
       <c r="L2" s="17">
         <f t="shared" si="0"/>
@@ -1648,7 +1688,7 @@
       </c>
       <c r="M2" s="18">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.2073170731707317</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1910,7 +1950,7 @@
         <v>21</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1921,7 +1961,7 @@
       </c>
       <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>

--- a/Docs/Taetigkeitsdokumentation.xlsx
+++ b/Docs/Taetigkeitsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FFF02F-0845-4DAA-B550-453F5FE3492B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F465AB3-B6C7-407E-B0FD-C6E1F7690BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Datei</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>init / getter/setter</t>
+  </si>
+  <si>
+    <t>Gewichtete Summe</t>
   </si>
 </sst>
 </file>
@@ -296,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,14 +330,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -597,7 +610,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$2:$M$2</c:f>
+              <c:f>Tabelle1!$H$3:$M$3</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1280,13 +1293,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1602,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,200 +1632,187 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="H1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="12">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="12">
         <v>45638</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="G2" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="13">
+        <f>SUM(H4:H10000)</f>
+        <v>70</v>
+      </c>
+      <c r="I2" s="2">
+        <f t="shared" ref="I2:M2" si="0">SUM(I4:I10000)</f>
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="16">
-        <f>SUM(H3:H1000)/SUM($H$3:$M$1000)</f>
-        <v>0.42682926829268292</v>
-      </c>
-      <c r="I2" s="17">
-        <f t="shared" ref="H2:M2" si="0">SUM(I3:I1000)/SUM($H$3:$M$1000)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="17">
+      <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>0.24390243902439024</v>
-      </c>
-      <c r="K2" s="17">
+        <v>40</v>
+      </c>
+      <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="L2" s="17">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="14">
         <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="20">
+        <f>H2/SUM($H$4:$M$1001)</f>
+        <v>0.42682926829268292</v>
+      </c>
+      <c r="I3" s="22">
+        <f t="shared" ref="I3:M3" si="1">I2/SUM($H$4:$M$1001)</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="22">
+        <f t="shared" si="1"/>
+        <v>0.24390243902439024</v>
+      </c>
+      <c r="K3" s="22">
+        <f t="shared" si="1"/>
+        <v>0.12195121951219512</v>
+      </c>
+      <c r="L3" s="22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="23">
+        <f t="shared" si="1"/>
         <v>0.2073170731707317</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C4" s="5">
         <v>21</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="str">
+      <c r="E4" s="6" t="str">
         <f>H1</f>
         <v>Adrian</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:M9" si="1">IF($E3=H$1, $C3 * $D3, "")</f>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4:M10" si="2">IF($E4=H$1, $C4 * $D4, "")</f>
         <v>21</v>
       </c>
-      <c r="I3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L3" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M3" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="I4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L4" t="str">
-        <f t="shared" si="1"/>
+      <c r="I4" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J4" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K4" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L4" s="19" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M4" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8" t="str">
-        <f>J1</f>
-        <v>Emilio</v>
-      </c>
-      <c r="H5" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J5">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="K5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M5" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1824,133 +1824,133 @@
         <v>18</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6" s="8" t="str">
+        <f>J1</f>
+        <v>Emilio</v>
+      </c>
+      <c r="H6" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M6" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="8" t="str">
         <f>K1</f>
         <v>Jannis</v>
       </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
+      <c r="H7" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K7">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="L6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M7" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>34</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="E7" s="8" t="str">
+      <c r="E8" s="8" t="str">
         <f>M1</f>
         <v>Jonas</v>
       </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M7" s="8">
-        <f t="shared" si="1"/>
+      <c r="H8" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="2"/>
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="8" t="str">
-        <f>H1</f>
-        <v>Adrian</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v/>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1960,39 +1960,39 @@
         <v>Adrian</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="I9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M9" s="8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2001,62 +2001,76 @@
         <f>H1</f>
         <v>Adrian</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="M10" s="8"/>
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M10" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="H11" s="7">
-        <f t="shared" ref="H11:H42" si="2">IF($E10=H$1, $C10 * $D10, "")</f>
+      <c r="A11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
         <v>22</v>
       </c>
-      <c r="I11" t="str">
-        <f t="shared" ref="I11:I42" si="3">IF($E10=I$1, $C10 * $D10, "")</f>
-        <v/>
-      </c>
-      <c r="J11" t="str">
-        <f t="shared" ref="J11:J42" si="4">IF($E10=J$1, $C10 * $D10, "")</f>
-        <v/>
-      </c>
-      <c r="K11" t="str">
-        <f t="shared" ref="K11:K42" si="5">IF($E10=K$1, $C10 * $D10, "")</f>
-        <v/>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" ref="L11:L42" si="6">IF($E10=L$1, $C10 * $D10, "")</f>
-        <v/>
-      </c>
-      <c r="M11" s="8" t="str">
-        <f t="shared" ref="M11:M42" si="7">IF($E10=M$1, $C10 * $D10, "")</f>
-        <v/>
-      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8" t="str">
+        <f>H1</f>
+        <v>Adrian</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="E12" s="8"/>
-      <c r="H12" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="H12" s="7">
+        <f t="shared" ref="H12:H43" si="3">IF($E11=H$1, $C11 * $D11, "")</f>
+        <v>22</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I12:I43" si="4">IF($E11=I$1, $C11 * $D11, "")</f>
         <v/>
       </c>
       <c r="J12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J12:J43" si="5">IF($E11=J$1, $C11 * $D11, "")</f>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K12:K43" si="6">IF($E11=K$1, $C11 * $D11, "")</f>
         <v/>
       </c>
       <c r="L12" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="L12:L43" si="7">IF($E11=L$1, $C11 * $D11, "")</f>
         <v/>
       </c>
       <c r="M12" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="M12:M43" si="8">IF($E11=M$1, $C11 * $D11, "")</f>
         <v/>
       </c>
     </row>
@@ -2064,27 +2078,27 @@
       <c r="A13" s="7"/>
       <c r="E13" s="8"/>
       <c r="H13" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M13" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2092,27 +2106,27 @@
       <c r="A14" s="7"/>
       <c r="E14" s="8"/>
       <c r="H14" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M14" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2120,27 +2134,27 @@
       <c r="A15" s="7"/>
       <c r="E15" s="8"/>
       <c r="H15" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J15" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K15" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L15" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M15" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2148,27 +2162,27 @@
       <c r="A16" s="7"/>
       <c r="E16" s="8"/>
       <c r="H16" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J16" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K16" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L16" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M16" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2176,27 +2190,27 @@
       <c r="A17" s="7"/>
       <c r="E17" s="8"/>
       <c r="H17" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J17" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K17" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L17" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M17" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2204,27 +2218,27 @@
       <c r="A18" s="7"/>
       <c r="E18" s="8"/>
       <c r="H18" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K18" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L18" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M18" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2232,27 +2246,27 @@
       <c r="A19" s="7"/>
       <c r="E19" s="8"/>
       <c r="H19" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K19" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M19" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2260,27 +2274,27 @@
       <c r="A20" s="7"/>
       <c r="E20" s="8"/>
       <c r="H20" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M20" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2288,27 +2302,27 @@
       <c r="A21" s="7"/>
       <c r="E21" s="8"/>
       <c r="H21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M21" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2316,27 +2330,27 @@
       <c r="A22" s="7"/>
       <c r="E22" s="8"/>
       <c r="H22" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M22" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2344,27 +2358,27 @@
       <c r="A23" s="7"/>
       <c r="E23" s="8"/>
       <c r="H23" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M23" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2372,27 +2386,27 @@
       <c r="A24" s="7"/>
       <c r="E24" s="8"/>
       <c r="H24" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M24" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2400,27 +2414,27 @@
       <c r="A25" s="7"/>
       <c r="E25" s="8"/>
       <c r="H25" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M25" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2428,27 +2442,27 @@
       <c r="A26" s="7"/>
       <c r="E26" s="8"/>
       <c r="H26" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M26" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2456,27 +2470,27 @@
       <c r="A27" s="7"/>
       <c r="E27" s="8"/>
       <c r="H27" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M27" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2484,27 +2498,27 @@
       <c r="A28" s="7"/>
       <c r="E28" s="8"/>
       <c r="H28" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M28" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2512,27 +2526,27 @@
       <c r="A29" s="7"/>
       <c r="E29" s="8"/>
       <c r="H29" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M29" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2540,27 +2554,27 @@
       <c r="A30" s="7"/>
       <c r="E30" s="8"/>
       <c r="H30" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M30" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2568,27 +2582,27 @@
       <c r="A31" s="7"/>
       <c r="E31" s="8"/>
       <c r="H31" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M31" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2596,27 +2610,27 @@
       <c r="A32" s="7"/>
       <c r="E32" s="8"/>
       <c r="H32" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M32" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2624,27 +2638,27 @@
       <c r="A33" s="7"/>
       <c r="E33" s="8"/>
       <c r="H33" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M33" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2652,27 +2666,27 @@
       <c r="A34" s="7"/>
       <c r="E34" s="8"/>
       <c r="H34" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M34" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2680,27 +2694,27 @@
       <c r="A35" s="7"/>
       <c r="E35" s="8"/>
       <c r="H35" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M35" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2708,27 +2722,27 @@
       <c r="A36" s="7"/>
       <c r="E36" s="8"/>
       <c r="H36" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M36" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2736,27 +2750,27 @@
       <c r="A37" s="7"/>
       <c r="E37" s="8"/>
       <c r="H37" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M37" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2764,27 +2778,27 @@
       <c r="A38" s="7"/>
       <c r="E38" s="8"/>
       <c r="H38" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M38" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2792,27 +2806,27 @@
       <c r="A39" s="7"/>
       <c r="E39" s="8"/>
       <c r="H39" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M39" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2820,27 +2834,27 @@
       <c r="A40" s="7"/>
       <c r="E40" s="8"/>
       <c r="H40" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M40" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2848,27 +2862,27 @@
       <c r="A41" s="7"/>
       <c r="E41" s="8"/>
       <c r="H41" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M41" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2876,27 +2890,27 @@
       <c r="A42" s="7"/>
       <c r="E42" s="8"/>
       <c r="H42" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M42" s="8" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2904,27 +2918,27 @@
       <c r="A43" s="7"/>
       <c r="E43" s="8"/>
       <c r="H43" s="7" t="str">
-        <f t="shared" ref="H43:H71" si="8">IF($E42=H$1, $C42 * $D42, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I43" t="str">
-        <f t="shared" ref="I43:I71" si="9">IF($E42=I$1, $C42 * $D42, "")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J43" t="str">
-        <f t="shared" ref="J43:J71" si="10">IF($E42=J$1, $C42 * $D42, "")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K43" t="str">
-        <f t="shared" ref="K43:K71" si="11">IF($E42=K$1, $C42 * $D42, "")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L43" t="str">
-        <f t="shared" ref="L43:L71" si="12">IF($E42=L$1, $C42 * $D42, "")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M43" s="8" t="str">
-        <f t="shared" ref="M43:M71" si="13">IF($E42=M$1, $C42 * $D42, "")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2932,27 +2946,27 @@
       <c r="A44" s="7"/>
       <c r="E44" s="8"/>
       <c r="H44" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="H44:H72" si="9">IF($E43=H$1, $C43 * $D43, "")</f>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="I44:I72" si="10">IF($E43=I$1, $C43 * $D43, "")</f>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="J44:J72" si="11">IF($E43=J$1, $C43 * $D43, "")</f>
         <v/>
       </c>
       <c r="K44" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K44:K72" si="12">IF($E43=K$1, $C43 * $D43, "")</f>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="L44:L72" si="13">IF($E43=L$1, $C43 * $D43, "")</f>
         <v/>
       </c>
       <c r="M44" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M44:M72" si="14">IF($E43=M$1, $C43 * $D43, "")</f>
         <v/>
       </c>
     </row>
@@ -2960,27 +2974,27 @@
       <c r="A45" s="7"/>
       <c r="E45" s="8"/>
       <c r="H45" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M45" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2988,27 +3002,27 @@
       <c r="A46" s="7"/>
       <c r="E46" s="8"/>
       <c r="H46" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M46" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3016,27 +3030,27 @@
       <c r="A47" s="7"/>
       <c r="E47" s="8"/>
       <c r="H47" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M47" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3044,27 +3058,27 @@
       <c r="A48" s="7"/>
       <c r="E48" s="8"/>
       <c r="H48" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M48" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3072,27 +3086,27 @@
       <c r="A49" s="7"/>
       <c r="E49" s="8"/>
       <c r="H49" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M49" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3100,27 +3114,27 @@
       <c r="A50" s="7"/>
       <c r="E50" s="8"/>
       <c r="H50" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M50" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3128,27 +3142,27 @@
       <c r="A51" s="7"/>
       <c r="E51" s="8"/>
       <c r="H51" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M51" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3156,27 +3170,27 @@
       <c r="A52" s="7"/>
       <c r="E52" s="8"/>
       <c r="H52" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M52" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3184,27 +3198,27 @@
       <c r="A53" s="7"/>
       <c r="E53" s="8"/>
       <c r="H53" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M53" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3212,27 +3226,27 @@
       <c r="A54" s="7"/>
       <c r="E54" s="8"/>
       <c r="H54" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M54" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3240,27 +3254,27 @@
       <c r="A55" s="7"/>
       <c r="E55" s="8"/>
       <c r="H55" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M55" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3268,27 +3282,27 @@
       <c r="A56" s="7"/>
       <c r="E56" s="8"/>
       <c r="H56" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M56" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3296,27 +3310,27 @@
       <c r="A57" s="7"/>
       <c r="E57" s="8"/>
       <c r="H57" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M57" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3324,27 +3338,27 @@
       <c r="A58" s="7"/>
       <c r="E58" s="8"/>
       <c r="H58" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M58" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3352,27 +3366,27 @@
       <c r="A59" s="7"/>
       <c r="E59" s="8"/>
       <c r="H59" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M59" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3380,27 +3394,27 @@
       <c r="A60" s="7"/>
       <c r="E60" s="8"/>
       <c r="H60" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M60" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3408,27 +3422,27 @@
       <c r="A61" s="7"/>
       <c r="E61" s="8"/>
       <c r="H61" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M61" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3436,27 +3450,27 @@
       <c r="A62" s="7"/>
       <c r="E62" s="8"/>
       <c r="H62" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I62" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M62" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3464,27 +3478,27 @@
       <c r="A63" s="7"/>
       <c r="E63" s="8"/>
       <c r="H63" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I63" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J63" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K63" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L63" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M63" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3492,27 +3506,27 @@
       <c r="A64" s="7"/>
       <c r="E64" s="8"/>
       <c r="H64" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I64" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J64" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K64" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L64" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M64" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3520,27 +3534,27 @@
       <c r="A65" s="7"/>
       <c r="E65" s="8"/>
       <c r="H65" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I65" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J65" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K65" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L65" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M65" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3548,27 +3562,27 @@
       <c r="A66" s="7"/>
       <c r="E66" s="8"/>
       <c r="H66" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I66" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J66" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K66" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L66" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M66" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3576,27 +3590,27 @@
       <c r="A67" s="7"/>
       <c r="E67" s="8"/>
       <c r="H67" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M67" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3604,27 +3618,27 @@
       <c r="A68" s="7"/>
       <c r="E68" s="8"/>
       <c r="H68" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I68" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J68" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K68" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L68" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M68" s="8" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3632,90 +3646,118 @@
       <c r="A69" s="7"/>
       <c r="E69" s="8"/>
       <c r="H69" s="7" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I69" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L69" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M69" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A70" s="7"/>
+      <c r="E70" s="8"/>
+      <c r="H70" s="7" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J69" t="str">
+      <c r="I70" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K69" t="str">
+      <c r="J70" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="L69" t="str">
+      <c r="K70" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="M69" s="8" t="str">
+      <c r="L70" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="9"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="H70" s="9" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I70" s="10" t="str">
+      <c r="M70" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="9"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="11"/>
+      <c r="H71" s="9" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J70" s="10" t="str">
+      <c r="I71" s="10" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K70" s="10" t="str">
+      <c r="J71" s="10" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="L70" s="10" t="str">
+      <c r="K71" s="10" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="M70" s="11" t="str">
+      <c r="L71" s="10" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H71" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="I71" t="str">
+      <c r="M71" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H72" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J71" t="str">
+      <c r="I72" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K71" t="str">
+      <c r="J72" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
-      <c r="L71" t="str">
+      <c r="K72" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
-      <c r="M71" t="str">
+      <c r="L72" t="str">
         <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M72" t="str">
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Docs/Taetigkeitsdokumentation.xlsx
+++ b/Docs/Taetigkeitsdokumentation.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F465AB3-B6C7-407E-B0FD-C6E1F7690BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AE098B-763E-42B6-AF56-649F5DA1EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Datei</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Gewichtete Summe</t>
+  </si>
+  <si>
+    <t>game_launcher.py</t>
+  </si>
+  <si>
+    <t>register.py</t>
+  </si>
+  <si>
+    <t>login.py</t>
   </si>
 </sst>
 </file>
@@ -299,7 +308,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -330,16 +339,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -348,6 +350,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -615,22 +623,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.42682926829268292</c:v>
+                  <c:v>0.64258555133079853</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.24390243902439024</c:v>
+                  <c:v>0.15209125475285171</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.12195121951219512</c:v>
+                  <c:v>7.6045627376425853E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2073170731707317</c:v>
+                  <c:v>0.12927756653992395</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -662,6 +670,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18363101487314082"/>
+          <c:y val="0.23668926800816562"/>
+          <c:w val="0.64384908136482943"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1618,7 +1636,7 @@
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1632,32 +1650,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="12">
         <v>45638</v>
       </c>
@@ -1666,7 +1684,7 @@
       </c>
       <c r="H2" s="13">
         <f>SUM(H4:H10000)</f>
-        <v>70</v>
+        <v>169</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:M2" si="0">SUM(I4:I10000)</f>
@@ -1708,29 +1726,29 @@
       <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="17">
         <f>H2/SUM($H$4:$M$1001)</f>
-        <v>0.42682926829268292</v>
-      </c>
-      <c r="I3" s="22">
+        <v>0.64258555133079853</v>
+      </c>
+      <c r="I3" s="19">
         <f t="shared" ref="I3:M3" si="1">I2/SUM($H$4:$M$1001)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="19">
         <f t="shared" si="1"/>
-        <v>0.24390243902439024</v>
-      </c>
-      <c r="K3" s="22">
+        <v>0.15209125475285171</v>
+      </c>
+      <c r="K3" s="19">
         <f t="shared" si="1"/>
-        <v>0.12195121951219512</v>
-      </c>
-      <c r="L3" s="22">
+        <v>7.6045627376425853E-2</v>
+      </c>
+      <c r="L3" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="20">
         <f t="shared" si="1"/>
-        <v>0.2073170731707317</v>
+        <v>0.12927756653992395</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1754,19 +1772,19 @@
         <f t="shared" ref="H4:M10" si="2">IF($E4=H$1, $C4 * $D4, "")</f>
         <v>21</v>
       </c>
-      <c r="I4" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J4" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K4" s="19" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L4" s="19" t="str">
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -2047,8 +2065,22 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>75</v>
+      </c>
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="8" t="str">
+        <f>H1</f>
+        <v>Adrian</v>
+      </c>
       <c r="H12" s="7">
         <f t="shared" ref="H12:H43" si="3">IF($E11=H$1, $C11 * $D11, "")</f>
         <v>22</v>
@@ -2075,11 +2107,25 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="E13" s="8"/>
-      <c r="H13" s="7" t="str">
+      <c r="A13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="8" t="str">
+        <f>H1</f>
+        <v>Adrian</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="3"/>
-        <v/>
+        <v>37.5</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="4"/>
@@ -2103,11 +2149,25 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="H14" s="7" t="str">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>73</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="8" t="str">
+        <f>H1</f>
+        <v>Adrian</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="3"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="4"/>
@@ -2133,9 +2193,9 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="E15" s="8"/>
-      <c r="H15" s="7" t="str">
+      <c r="H15" s="7">
         <f t="shared" si="3"/>
-        <v/>
+        <v>36.5</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="4"/>

--- a/Docs/Taetigkeitsdokumentation.xlsx
+++ b/Docs/Taetigkeitsdokumentation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60AE098B-763E-42B6-AF56-649F5DA1EFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="202"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Datei</t>
   </si>
@@ -118,11 +117,14 @@
   <si>
     <t>login.py</t>
   </si>
+  <si>
+    <t>OOD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,7 +378,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -423,6 +425,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -484,7 +487,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -504,7 +507,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -524,7 +527,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -544,7 +547,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -564,7 +567,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -584,7 +587,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -623,27 +626,27 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.64258555133079853</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>4.975124378109453E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.15209125475285171</c:v>
+                  <c:v>9.950248756218906E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6045627376425853E-2</c:v>
+                  <c:v>4.975124378109453E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.975124378109453E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12927756653992395</c:v>
+                  <c:v>8.45771144278607E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A930-4FA2-BF18-15A0603A79F5}"/>
             </c:ext>
@@ -1325,7 +1328,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4549542D-0DEB-D9BF-8A3B-B272C078F112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4549542D-0DEB-D9BF-8A3B-B272C078F112}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,9 +1350,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1387,9 +1390,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1424,7 +1427,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1459,7 +1462,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1632,11 +1635,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1684,11 +1687,11 @@
       </c>
       <c r="H2" s="13">
         <f>SUM(H4:H10000)</f>
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:M2" si="0">SUM(I4:I10000)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
@@ -1700,7 +1703,7 @@
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M2" s="14">
         <f t="shared" si="0"/>
@@ -1728,27 +1731,27 @@
       </c>
       <c r="H3" s="17">
         <f>H2/SUM($H$4:$M$1001)</f>
-        <v>0.64258555133079853</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:M3" si="1">I2/SUM($H$4:$M$1001)</f>
-        <v>0</v>
+        <v>4.975124378109453E-2</v>
       </c>
       <c r="J3" s="19">
         <f t="shared" si="1"/>
-        <v>0.15209125475285171</v>
+        <v>9.950248756218906E-2</v>
       </c>
       <c r="K3" s="19">
         <f t="shared" si="1"/>
-        <v>7.6045627376425853E-2</v>
+        <v>4.975124378109453E-2</v>
       </c>
       <c r="L3" s="19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.975124378109453E-2</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="1"/>
-        <v>0.12927756653992395</v>
+        <v>8.45771144278607E-2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2075,7 +2078,7 @@
         <v>75</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E12" s="8" t="str">
         <f>H1</f>
@@ -2117,7 +2120,7 @@
         <v>50</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E13" s="8" t="str">
         <f>H1</f>
@@ -2125,7 +2128,7 @@
       </c>
       <c r="H13" s="7">
         <f t="shared" si="3"/>
-        <v>37.5</v>
+        <v>75</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="4"/>
@@ -2159,7 +2162,7 @@
         <v>73</v>
       </c>
       <c r="D14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="8" t="str">
         <f>H1</f>
@@ -2167,7 +2170,7 @@
       </c>
       <c r="H14" s="7">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="4"/>
@@ -2191,11 +2194,24 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="H15" s="7">
         <f t="shared" si="3"/>
-        <v>36.5</v>
+        <v>73</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="4"/>
@@ -2219,15 +2235,28 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I16" t="str">
+      <c r="I16">
         <f t="shared" si="4"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="J16" t="str">
         <f t="shared" si="5"/>
@@ -2265,9 +2294,9 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L17" t="str">
+      <c r="L17">
         <f t="shared" si="7"/>
-        <v/>
+        <v>20</v>
       </c>
       <c r="M17" s="8" t="str">
         <f t="shared" si="8"/>

--- a/Docs/Taetigkeitsdokumentation.xlsx
+++ b/Docs/Taetigkeitsdokumentation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B9B2CC-940C-4CFC-AE73-9E9DF222063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="202"/>
+    <workbookView xWindow="-27195" yWindow="1020" windowWidth="21600" windowHeight="11295" tabRatio="202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -18,8 +19,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Datei</t>
   </si>
@@ -78,10 +77,6 @@
     <t>Gewichteter Anteil</t>
   </si>
   <si>
-    <t>Schwierigkeitsgrad 
-(1-5)</t>
-  </si>
-  <si>
     <t>UML</t>
   </si>
   <si>
@@ -120,11 +115,48 @@
   <si>
     <t>OOD</t>
   </si>
+  <si>
+    <t>Schwierigkeitsgrad 
+(1-3)</t>
+  </si>
+  <si>
+    <t>negWuerfel</t>
+  </si>
+  <si>
+    <t>Regelwerk_GUI.py</t>
+  </si>
+  <si>
+    <t>toggle_white_mode</t>
+  </si>
+  <si>
+    <t>create_menu</t>
+  </si>
+  <si>
+    <t>shop.py</t>
+  </si>
+  <si>
+    <t>on_button_click</t>
+  </si>
+  <si>
+    <t>Entwurf von</t>
+  </si>
+  <si>
+    <t>Jannis und Emilio</t>
+  </si>
+  <si>
+    <t>Simon und Niklas</t>
+  </si>
+  <si>
+    <t>zeichneZiel</t>
+  </si>
+  <si>
+    <t>Spielfeld_GUI.py</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -353,12 +385,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -378,7 +412,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -425,7 +459,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -487,7 +520,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -507,7 +540,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -527,7 +560,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -547,7 +580,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -567,7 +600,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -587,7 +620,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -626,27 +659,27 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.66666666666666663</c:v>
+                  <c:v>0.5381526104417671</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.975124378109453E-2</c:v>
+                  <c:v>4.6184738955823292E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.950248756218906E-2</c:v>
+                  <c:v>0.21485943775100402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.975124378109453E-2</c:v>
+                  <c:v>2.8112449799196786E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.975124378109453E-2</c:v>
+                  <c:v>0.10441767068273092</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.45771144278607E-2</c:v>
+                  <c:v>6.8273092369477914E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A930-4FA2-BF18-15A0603A79F5}"/>
             </c:ext>
@@ -1314,21 +1347,21 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4549542D-0DEB-D9BF-8A3B-B272C078F112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4549542D-0DEB-D9BF-8A3B-B272C078F112}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,9 +1383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1390,7 +1423,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1425,6 +1458,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1460,9 +1510,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1635,24 +1702,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H1" s="18" t="s">
         <v>9</v>
       </c>
@@ -1672,18 +1739,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="12">
         <v>45638</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="13">
         <f>SUM(H4:H10000)</f>
@@ -1691,26 +1758,26 @@
       </c>
       <c r="I2" s="2">
         <f t="shared" ref="I2:M2" si="0">SUM(I4:I10000)</f>
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="M2" s="14">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1721,7 +1788,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>3</v>
@@ -1731,30 +1798,30 @@
       </c>
       <c r="H3" s="17">
         <f>H2/SUM($H$4:$M$1001)</f>
-        <v>0.66666666666666663</v>
+        <v>0.5381526104417671</v>
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:M3" si="1">I2/SUM($H$4:$M$1001)</f>
-        <v>4.975124378109453E-2</v>
+        <v>4.6184738955823292E-2</v>
       </c>
       <c r="J3" s="19">
         <f t="shared" si="1"/>
-        <v>9.950248756218906E-2</v>
+        <v>0.21485943775100402</v>
       </c>
       <c r="K3" s="19">
         <f t="shared" si="1"/>
-        <v>4.975124378109453E-2</v>
+        <v>2.8112449799196786E-2</v>
       </c>
       <c r="L3" s="19">
         <f t="shared" si="1"/>
-        <v>4.975124378109453E-2</v>
+        <v>0.10441767068273092</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="1"/>
-        <v>8.45771144278607E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>6.8273092369477914E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1772,7 +1839,7 @@
         <v>Adrian</v>
       </c>
       <c r="H4" s="7">
-        <f t="shared" ref="H4:M10" si="2">IF($E4=H$1, $C4 * $D4, "")</f>
+        <f t="shared" ref="H4:M19" si="2">IF($E4=H$1, $C4 * $D4, "")</f>
         <v>21</v>
       </c>
       <c r="I4" t="str">
@@ -1795,8 +1862,17 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O4" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1809,8 +1885,9 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>9</v>
+      <c r="E5" s="8" t="str">
+        <f>H1</f>
+        <v>Adrian</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="2"/>
@@ -1836,97 +1913,108 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O5" s="25"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="8" t="str">
+        <f>H1</f>
+        <v>Adrian</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M6" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8" t="str">
+        <f>H1</f>
+        <v>Adrian</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M7" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="O7" s="25"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C6">
-        <v>20</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8" t="str">
-        <f>J1</f>
-        <v>Emilio</v>
-      </c>
-      <c r="H6" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J6">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="K6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M6" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B8" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="8" t="str">
-        <f>K1</f>
-        <v>Jannis</v>
-      </c>
-      <c r="H7" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M7" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
       </c>
       <c r="C8">
         <v>34</v>
@@ -1962,13 +2050,14 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O8" s="25"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -2005,12 +2094,12 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>16</v>
@@ -2047,12 +2136,12 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>24</v>
       </c>
       <c r="C11">
         <v>22</v>
@@ -2064,15 +2153,37 @@
         <f>H1</f>
         <v>Adrian</v>
       </c>
-      <c r="H11" s="7"/>
-      <c r="M11" s="8"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="7">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M11" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>75</v>
@@ -2085,277 +2196,321 @@
         <v>Adrian</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" ref="H12:H43" si="3">IF($E11=H$1, $C11 * $D11, "")</f>
-        <v>22</v>
+        <f t="shared" si="2"/>
+        <v>75</v>
       </c>
       <c r="I12" t="str">
-        <f t="shared" ref="I12:I43" si="4">IF($E11=I$1, $C11 * $D11, "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J12" t="str">
-        <f t="shared" ref="J12:J43" si="5">IF($E11=J$1, $C11 * $D11, "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K12" t="str">
-        <f t="shared" ref="K12:K43" si="6">IF($E11=K$1, $C11 * $D11, "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L12" t="str">
-        <f t="shared" ref="L12:L43" si="7">IF($E11=L$1, $C11 * $D11, "")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M12" s="8" t="str">
-        <f t="shared" ref="M12:M43" si="8">IF($E11=M$1, $C11 * $D11, "")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>27</v>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="8" t="str">
-        <f>H1</f>
-        <v>Adrian</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="I13" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f>I1</f>
+        <v>Simon</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I13">
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
       <c r="J13" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K13" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L13" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M13" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" s="8" t="str">
-        <f>H1</f>
-        <v>Adrian</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="3"/>
-        <v>50</v>
+        <f>L1</f>
+        <v>Niklas</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
       </c>
       <c r="I14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="K14" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L14" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>52</v>
       </c>
       <c r="M14" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>29</v>
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8" t="str">
+        <f>I1</f>
+        <v>Simon</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I15">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f>I1</f>
+        <v>Simon</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8" t="str">
+        <f>K1</f>
+        <v>Jannis</v>
+      </c>
+      <c r="H17" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K17">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>87</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="str">
+        <f>J1</f>
+        <v>Emilio</v>
+      </c>
+      <c r="H18" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J18">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19">
         <v>10</v>
       </c>
-      <c r="D15">
+      <c r="D19">
         <v>2</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="7">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-      <c r="I15" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J15" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K15" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L15" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M15" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I16">
-        <f t="shared" si="4"/>
+      <c r="E19" s="8" t="str">
+        <f>J1</f>
+        <v>Emilio</v>
+      </c>
+      <c r="H19" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J19">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="J16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K16" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L16" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M16" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="H17" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I17" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J17" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K17" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L17">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="M17" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="H18" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I18" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J18" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K18" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L18" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M18" s="8" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="H19" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I19" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J19" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
       <c r="K19" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L19" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M19" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2363,27 +2518,27 @@
       <c r="A20" s="7"/>
       <c r="E20" s="8"/>
       <c r="H20" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H20:M45" si="3">IF($E20=H$1, $C20 * $D20, "")</f>
         <v/>
       </c>
       <c r="I20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J20" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K20" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M20" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2395,23 +2550,23 @@
         <v/>
       </c>
       <c r="I21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J21" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L21" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M21" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2423,23 +2578,23 @@
         <v/>
       </c>
       <c r="I22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J22" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K22" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L22" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M22" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2451,23 +2606,23 @@
         <v/>
       </c>
       <c r="I23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K23" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L23" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M23" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2479,23 +2634,23 @@
         <v/>
       </c>
       <c r="I24" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K24" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L24" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M24" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2507,23 +2662,23 @@
         <v/>
       </c>
       <c r="I25" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K25" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L25" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M25" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2535,23 +2690,23 @@
         <v/>
       </c>
       <c r="I26" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K26" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L26" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M26" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2563,23 +2718,23 @@
         <v/>
       </c>
       <c r="I27" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K27" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M27" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2591,23 +2746,23 @@
         <v/>
       </c>
       <c r="I28" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K28" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L28" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M28" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2619,23 +2774,23 @@
         <v/>
       </c>
       <c r="I29" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K29" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L29" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M29" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2647,23 +2802,23 @@
         <v/>
       </c>
       <c r="I30" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L30" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M30" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2675,23 +2830,23 @@
         <v/>
       </c>
       <c r="I31" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K31" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L31" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M31" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2703,23 +2858,23 @@
         <v/>
       </c>
       <c r="I32" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K32" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L32" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M32" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2731,23 +2886,23 @@
         <v/>
       </c>
       <c r="I33" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K33" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L33" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M33" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2759,23 +2914,23 @@
         <v/>
       </c>
       <c r="I34" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K34" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L34" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M34" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2787,23 +2942,23 @@
         <v/>
       </c>
       <c r="I35" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K35" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L35" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M35" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2815,23 +2970,23 @@
         <v/>
       </c>
       <c r="I36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M36" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2843,23 +2998,23 @@
         <v/>
       </c>
       <c r="I37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M37" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2871,23 +3026,23 @@
         <v/>
       </c>
       <c r="I38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M38" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2899,23 +3054,23 @@
         <v/>
       </c>
       <c r="I39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M39" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2927,23 +3082,23 @@
         <v/>
       </c>
       <c r="I40" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M40" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2955,23 +3110,23 @@
         <v/>
       </c>
       <c r="I41" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M41" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2983,23 +3138,23 @@
         <v/>
       </c>
       <c r="I42" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K42" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L42" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M42" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3011,23 +3166,23 @@
         <v/>
       </c>
       <c r="I43" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K43" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L43" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M43" s="8" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3035,27 +3190,27 @@
       <c r="A44" s="7"/>
       <c r="E44" s="8"/>
       <c r="H44" s="7" t="str">
-        <f t="shared" ref="H44:H72" si="9">IF($E43=H$1, $C43 * $D43, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I44" t="str">
-        <f t="shared" ref="I44:I72" si="10">IF($E43=I$1, $C43 * $D43, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J44" t="str">
-        <f t="shared" ref="J44:J72" si="11">IF($E43=J$1, $C43 * $D43, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K44" t="str">
-        <f t="shared" ref="K44:K72" si="12">IF($E43=K$1, $C43 * $D43, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L44" t="str">
-        <f t="shared" ref="L44:L72" si="13">IF($E43=L$1, $C43 * $D43, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M44" s="8" t="str">
-        <f t="shared" ref="M44:M72" si="14">IF($E43=M$1, $C43 * $D43, "")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3063,27 +3218,27 @@
       <c r="A45" s="7"/>
       <c r="E45" s="8"/>
       <c r="H45" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I45" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J45" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K45" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L45" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M45" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3091,27 +3246,27 @@
       <c r="A46" s="7"/>
       <c r="E46" s="8"/>
       <c r="H46" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="H44:H72" si="4">IF($E45=H$1, $C45 * $D45, "")</f>
         <v/>
       </c>
       <c r="I46" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="I46:M62" si="5">IF($E46=I$1, $C46 * $D46, "")</f>
         <v/>
       </c>
       <c r="J46" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K46" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L46" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M46" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3119,27 +3274,27 @@
       <c r="A47" s="7"/>
       <c r="E47" s="8"/>
       <c r="H47" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I47" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J47" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K47" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L47" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M47" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3147,27 +3302,27 @@
       <c r="A48" s="7"/>
       <c r="E48" s="8"/>
       <c r="H48" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I48" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J48" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K48" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L48" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M48" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3175,27 +3330,27 @@
       <c r="A49" s="7"/>
       <c r="E49" s="8"/>
       <c r="H49" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I49" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J49" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M49" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3203,27 +3358,27 @@
       <c r="A50" s="7"/>
       <c r="E50" s="8"/>
       <c r="H50" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J50" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K50" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L50" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M50" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3231,27 +3386,27 @@
       <c r="A51" s="7"/>
       <c r="E51" s="8"/>
       <c r="H51" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I51" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J51" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K51" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L51" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M51" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3259,27 +3414,27 @@
       <c r="A52" s="7"/>
       <c r="E52" s="8"/>
       <c r="H52" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I52" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J52" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K52" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L52" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M52" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3287,27 +3442,27 @@
       <c r="A53" s="7"/>
       <c r="E53" s="8"/>
       <c r="H53" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I53" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J53" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K53" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L53" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M53" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3315,27 +3470,27 @@
       <c r="A54" s="7"/>
       <c r="E54" s="8"/>
       <c r="H54" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I54" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J54" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M54" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3343,27 +3498,27 @@
       <c r="A55" s="7"/>
       <c r="E55" s="8"/>
       <c r="H55" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J55" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K55" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L55" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M55" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3371,27 +3526,27 @@
       <c r="A56" s="7"/>
       <c r="E56" s="8"/>
       <c r="H56" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I56" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J56" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="J44:J72" si="6">IF($E55=J$1, $C55 * $D55, "")</f>
         <v/>
       </c>
       <c r="K56" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L56" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M56" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3399,27 +3554,27 @@
       <c r="A57" s="7"/>
       <c r="E57" s="8"/>
       <c r="H57" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I57" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J57" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K57" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="K44:K72" si="7">IF($E56=K$1, $C56 * $D56, "")</f>
         <v/>
       </c>
       <c r="L57" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M57" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3427,27 +3582,27 @@
       <c r="A58" s="7"/>
       <c r="E58" s="8"/>
       <c r="H58" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I58" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J58" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K58" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L58" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M58" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3455,27 +3610,27 @@
       <c r="A59" s="7"/>
       <c r="E59" s="8"/>
       <c r="H59" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J59" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K59" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L59" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M59" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3483,27 +3638,27 @@
       <c r="A60" s="7"/>
       <c r="E60" s="8"/>
       <c r="H60" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J60" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K60" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L60" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M60" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3511,27 +3666,27 @@
       <c r="A61" s="7"/>
       <c r="E61" s="8"/>
       <c r="H61" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I61" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J61" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K61" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L61" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M61" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3539,27 +3694,23 @@
       <c r="A62" s="7"/>
       <c r="E62" s="8"/>
       <c r="H62" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I62" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J62" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K62" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L62" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M62" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3567,27 +3718,27 @@
       <c r="A63" s="7"/>
       <c r="E63" s="8"/>
       <c r="H63" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" ref="I44:I72" si="8">IF($E62=I$1, $C62 * $D62, "")</f>
+        <v/>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L63" t="str">
+        <f t="shared" ref="L63:M66" si="9">IF($E63=L$1, $C63 * $D63, "")</f>
+        <v/>
+      </c>
+      <c r="M63" s="8" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="I63" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J63" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K63" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L63" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M63" s="8" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3595,27 +3746,27 @@
       <c r="A64" s="7"/>
       <c r="E64" s="8"/>
       <c r="H64" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L64" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I64" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J64" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K64" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L64" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="M64" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3623,27 +3774,27 @@
       <c r="A65" s="7"/>
       <c r="E65" s="8"/>
       <c r="H65" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L65" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I65" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J65" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K65" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L65" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="M65" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3651,27 +3802,27 @@
       <c r="A66" s="7"/>
       <c r="E66" s="8"/>
       <c r="H66" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L66" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I66" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J66" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K66" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L66" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
       <c r="M66" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -3679,27 +3830,27 @@
       <c r="A67" s="7"/>
       <c r="E67" s="8"/>
       <c r="H67" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I67" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J67" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K67" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L67" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="L44:L72" si="10">IF($E66=L$1, $C66 * $D66, "")</f>
         <v/>
       </c>
       <c r="M67" s="8" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M44:M72" si="11">IF($E66=M$1, $C66 * $D66, "")</f>
         <v/>
       </c>
     </row>
@@ -3707,27 +3858,27 @@
       <c r="A68" s="7"/>
       <c r="E68" s="8"/>
       <c r="H68" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I68" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L68" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J68" t="str">
+      <c r="M68" s="8" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K68" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L68" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M68" s="8" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3735,27 +3886,27 @@
       <c r="A69" s="7"/>
       <c r="E69" s="8"/>
       <c r="H69" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I69" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L69" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J69" t="str">
+      <c r="M69" s="8" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K69" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L69" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M69" s="8" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3763,27 +3914,27 @@
       <c r="A70" s="7"/>
       <c r="E70" s="8"/>
       <c r="H70" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I70" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L70" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J70" t="str">
+      <c r="M70" s="8" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K70" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L70" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M70" s="8" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3794,53 +3945,53 @@
       <c r="D71" s="10"/>
       <c r="E71" s="11"/>
       <c r="H71" s="9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I71" s="10" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J71" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K71" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L71" s="10" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J71" s="10" t="str">
+      <c r="M71" s="11" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K71" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L71" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M71" s="11" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H72" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I72" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L72" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J72" t="str">
+      <c r="M72" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K72" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L72" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M72" t="str">
-        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -3849,6 +4000,9 @@
     <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="I61" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Taetigkeitsdokumentation.xlsx
+++ b/Docs/Taetigkeitsdokumentation.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B9B2CC-940C-4CFC-AE73-9E9DF222063A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27195" yWindow="1020" windowWidth="21600" windowHeight="11295" tabRatio="202" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27195" yWindow="1020" windowWidth="21600" windowHeight="11295" tabRatio="202"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t>Datei</t>
   </si>
@@ -156,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,13 +385,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
@@ -412,7 +411,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -459,6 +458,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -520,7 +520,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -540,7 +540,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -560,7 +560,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -580,7 +580,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -600,7 +600,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -620,7 +620,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-4552-4DF7-AAA6-C32A3806EF1D}"/>
               </c:ext>
@@ -659,27 +659,27 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.5381526104417671</c:v>
+                  <c:v>0.35828877005347592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6184738955823292E-2</c:v>
+                  <c:v>3.074866310160428E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21485943775100402</c:v>
+                  <c:v>0.14304812834224598</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8112449799196786E-2</c:v>
+                  <c:v>0.35294117647058826</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10441767068273092</c:v>
+                  <c:v>6.9518716577540107E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.8273092369477914E-2</c:v>
+                  <c:v>4.5454545454545456E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A930-4FA2-BF18-15A0603A79F5}"/>
             </c:ext>
@@ -1361,7 +1361,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4549542D-0DEB-D9BF-8A3B-B272C078F112}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4549542D-0DEB-D9BF-8A3B-B272C078F112}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,9 +1383,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1423,7 +1423,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1458,23 +1458,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1510,26 +1493,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1702,11 +1668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1740,12 +1706,12 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="12">
         <v>45638</v>
       </c>
@@ -1766,7 +1732,7 @@
       </c>
       <c r="K2" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>264</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
@@ -1798,27 +1764,27 @@
       </c>
       <c r="H3" s="17">
         <f>H2/SUM($H$4:$M$1001)</f>
-        <v>0.5381526104417671</v>
+        <v>0.35828877005347592</v>
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:M3" si="1">I2/SUM($H$4:$M$1001)</f>
-        <v>4.6184738955823292E-2</v>
+        <v>3.074866310160428E-2</v>
       </c>
       <c r="J3" s="19">
         <f t="shared" si="1"/>
-        <v>0.21485943775100402</v>
+        <v>0.14304812834224598</v>
       </c>
       <c r="K3" s="19">
         <f t="shared" si="1"/>
-        <v>2.8112449799196786E-2</v>
+        <v>0.35294117647058826</v>
       </c>
       <c r="L3" s="19">
         <f t="shared" si="1"/>
-        <v>0.10441767068273092</v>
+        <v>6.9518716577540107E-2</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="1"/>
-        <v>6.8273092369477914E-2</v>
+        <v>4.5454545454545456E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1862,7 +1828,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="23" t="s">
         <v>16</v>
       </c>
       <c r="P4" t="s">
@@ -1913,7 +1879,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O5" s="25"/>
+      <c r="O5" s="23"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -2007,7 +1973,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="O7" s="25"/>
+      <c r="O7" s="23"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
@@ -2050,7 +2016,7 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="O8" s="25"/>
+      <c r="O8" s="23"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -2515,8 +2481,21 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>250</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H20" s="7" t="str">
         <f t="shared" ref="H20:M45" si="3">IF($E20=H$1, $C20 * $D20, "")</f>
         <v/>
@@ -2529,9 +2508,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K20" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>250</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="3"/>
@@ -3246,7 +3225,7 @@
       <c r="A46" s="7"/>
       <c r="E46" s="8"/>
       <c r="H46" s="7" t="str">
-        <f t="shared" ref="H44:H72" si="4">IF($E45=H$1, $C45 * $D45, "")</f>
+        <f t="shared" ref="H46:H72" si="4">IF($E45=H$1, $C45 * $D45, "")</f>
         <v/>
       </c>
       <c r="I46" t="str">
@@ -3534,7 +3513,7 @@
         <v/>
       </c>
       <c r="J56" t="str">
-        <f t="shared" ref="J44:J72" si="6">IF($E55=J$1, $C55 * $D55, "")</f>
+        <f t="shared" ref="J56:J72" si="6">IF($E55=J$1, $C55 * $D55, "")</f>
         <v/>
       </c>
       <c r="K56" t="str">
@@ -3566,7 +3545,7 @@
         <v/>
       </c>
       <c r="K57" t="str">
-        <f t="shared" ref="K44:K72" si="7">IF($E56=K$1, $C56 * $D56, "")</f>
+        <f t="shared" ref="K57:K72" si="7">IF($E56=K$1, $C56 * $D56, "")</f>
         <v/>
       </c>
       <c r="L57" t="str">
@@ -3722,7 +3701,7 @@
         <v/>
       </c>
       <c r="I63" t="str">
-        <f t="shared" ref="I44:I72" si="8">IF($E62=I$1, $C62 * $D62, "")</f>
+        <f t="shared" ref="I63:I72" si="8">IF($E62=I$1, $C62 * $D62, "")</f>
         <v/>
       </c>
       <c r="J63" t="str">
@@ -3846,11 +3825,11 @@
         <v/>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L44:L72" si="10">IF($E66=L$1, $C66 * $D66, "")</f>
+        <f t="shared" ref="L67:L72" si="10">IF($E66=L$1, $C66 * $D66, "")</f>
         <v/>
       </c>
       <c r="M67" s="8" t="str">
-        <f t="shared" ref="M44:M72" si="11">IF($E66=M$1, $C66 * $D66, "")</f>
+        <f t="shared" ref="M67:M72" si="11">IF($E66=M$1, $C66 * $D66, "")</f>
         <v/>
       </c>
     </row>

--- a/Docs/Taetigkeitsdokumentation.xlsx
+++ b/Docs/Taetigkeitsdokumentation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Datei</t>
   </si>
@@ -150,6 +150,12 @@
   </si>
   <si>
     <t>Spielfeld_GUI.py</t>
+  </si>
+  <si>
+    <t>open_regelwerk</t>
+  </si>
+  <si>
+    <t>reset_regelwerk</t>
   </si>
 </sst>
 </file>
@@ -659,22 +665,22 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.35828877005347592</c:v>
+                  <c:v>0.35543766578249336</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.074866310160428E-2</c:v>
+                  <c:v>3.0503978779840849E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14304812834224598</c:v>
+                  <c:v>0.14190981432360741</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.35294117647058826</c:v>
+                  <c:v>0.35013262599469497</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.9518716577540107E-2</c:v>
+                  <c:v>7.6923076923076927E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5454545454545456E-2</c:v>
+                  <c:v>4.5092838196286469E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1361,7 +1367,7 @@
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4549542D-0DEB-D9BF-8A3B-B272C078F112}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4549542D-0DEB-D9BF-8A3B-B272C078F112}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1671,8 +1677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1736,7 +1742,7 @@
       </c>
       <c r="L2" s="2">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M2" s="14">
         <f t="shared" si="0"/>
@@ -1764,27 +1770,27 @@
       </c>
       <c r="H3" s="17">
         <f>H2/SUM($H$4:$M$1001)</f>
-        <v>0.35828877005347592</v>
+        <v>0.35543766578249336</v>
       </c>
       <c r="I3" s="19">
         <f t="shared" ref="I3:M3" si="1">I2/SUM($H$4:$M$1001)</f>
-        <v>3.074866310160428E-2</v>
+        <v>3.0503978779840849E-2</v>
       </c>
       <c r="J3" s="19">
         <f t="shared" si="1"/>
-        <v>0.14304812834224598</v>
+        <v>0.14190981432360741</v>
       </c>
       <c r="K3" s="19">
         <f t="shared" si="1"/>
-        <v>0.35294117647058826</v>
+        <v>0.35013262599469497</v>
       </c>
       <c r="L3" s="19">
         <f t="shared" si="1"/>
-        <v>6.9518716577540107E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="1"/>
-        <v>4.5454545454545456E-2</v>
+        <v>4.5092838196286469E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -2522,8 +2528,21 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2540,9 +2559,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L21" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="L21">
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="M21" s="8" t="str">
         <f t="shared" si="3"/>
@@ -2550,8 +2569,21 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" s="7" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -2568,9 +2600,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L22" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="L22">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="M22" s="8" t="str">
         <f t="shared" si="3"/>
